--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>filename</t>
   </si>
@@ -130,19 +130,22 @@
     <t>K21-61-FI#3</t>
   </si>
   <si>
-    <t>K21-64-FI#1</t>
-  </si>
-  <si>
-    <t>K21-64-FI#3</t>
+    <t>K21-64-FI#1_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-64-FI#3_CRR_DiadFit</t>
   </si>
   <si>
     <t>K21-64-FI#4</t>
   </si>
   <si>
-    <t>K21-64-FI#5</t>
-  </si>
-  <si>
-    <t>K21-64-FI#7</t>
+    <t>K21-64-FI#5_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-64-FI#6_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-64-FI#7_CRR_DiadFit</t>
   </si>
   <si>
     <t>Flagged Warnings:</t>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,97 +630,88 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>103.299541952867</v>
+        <v>103.30012767638</v>
       </c>
       <c r="D2">
-        <v>1285.470024130145</v>
+        <v>1285.470024016274</v>
       </c>
       <c r="E2">
-        <v>988.9448000720515</v>
+        <v>988.9448579984597</v>
       </c>
       <c r="F2">
-        <v>1285.470074132646</v>
+        <v>1285.470074018774</v>
       </c>
       <c r="G2">
-        <v>1433.106768375708</v>
+        <v>1433.106847156976</v>
       </c>
       <c r="H2">
-        <v>0.5526606997563119</v>
+        <v>0.5526606420470734</v>
       </c>
       <c r="I2">
-        <v>2.918337416079508</v>
+        <v>2.918337522478685</v>
       </c>
       <c r="J2">
-        <v>0.5834874011842812</v>
+        <v>0.5834876548155535</v>
       </c>
       <c r="K2">
-        <v>1.105321399512624</v>
+        <v>1.105321284094147</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>1388.769566083012</v>
+        <v>1388.770251697654</v>
       </c>
       <c r="N2">
-        <v>1857.137270370479</v>
+        <v>1865.050083863697</v>
       </c>
       <c r="O2">
-        <v>1388.769616085513</v>
+        <v>1388.770201695154</v>
       </c>
       <c r="P2">
-        <v>2265.320531200461</v>
+        <v>2295.957885464672</v>
       </c>
       <c r="Q2">
-        <v>0.4828895277271238</v>
+        <v>0.4800414910895605</v>
       </c>
       <c r="S2">
-        <v>2.378189366748376</v>
+        <v>2.981931731238296</v>
       </c>
       <c r="T2">
-        <v>0.4934684538234179</v>
+        <v>0.5270224816759878</v>
       </c>
       <c r="U2">
-        <v>0.9657790554542476</v>
+        <v>0.9600829821791209</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2">
-        <v>1265.202382406044</v>
+        <v>1265.202382475691</v>
       </c>
       <c r="X2">
-        <v>102.332419393674</v>
+        <v>102.3323778189052</v>
       </c>
       <c r="Y2">
-        <v>0.8018041376677171</v>
+        <v>0.8018044841890961</v>
       </c>
       <c r="Z2">
-        <v>1410.118361242629</v>
+        <v>1410.117692329394</v>
       </c>
       <c r="AA2">
-        <v>256.9461009079117</v>
+        <v>255.614031393346</v>
       </c>
       <c r="AB2">
-        <v>0.6108706172000506</v>
+        <v>0.6082752585574276</v>
       </c>
       <c r="AC2">
-        <v>1370.655056974182</v>
+        <v>1371.200734214741</v>
       </c>
       <c r="AD2">
-        <v>32.38677884881715</v>
+        <v>24.95856259069507</v>
       </c>
       <c r="AE2">
-        <v>0.2393872087383124</v>
-      </c>
-      <c r="AF2">
-        <v>1381.561001000006</v>
-      </c>
-      <c r="AG2">
-        <v>143.518994590751</v>
-      </c>
-      <c r="AH2">
-        <v>11.96955834124673</v>
+        <v>0.2396590906026543</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -728,97 +722,88 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.3334829916314</v>
+        <v>103.3338106477925</v>
       </c>
       <c r="D3">
-        <v>1285.409241539194</v>
+        <v>1285.409241235363</v>
       </c>
       <c r="E3">
-        <v>815.5835570854499</v>
+        <v>815.5835901015083</v>
       </c>
       <c r="F3">
-        <v>1285.409291541694</v>
+        <v>1285.409291237863</v>
       </c>
       <c r="G3">
-        <v>1225.330054989565</v>
+        <v>1225.330099018845</v>
       </c>
       <c r="H3">
-        <v>0.5569706912852957</v>
+        <v>0.5569706645183105</v>
       </c>
       <c r="I3">
-        <v>2.339882549226891</v>
+        <v>2.339882601869372</v>
       </c>
       <c r="J3">
-        <v>0.6539941484020434</v>
+        <v>0.6539942536879194</v>
       </c>
       <c r="K3">
-        <v>1.113941382570591</v>
+        <v>1.113941329036621</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>1388.742724530826</v>
+        <v>1388.743151888155</v>
       </c>
       <c r="N3">
-        <v>1533.610794844677</v>
+        <v>1535.091099216464</v>
       </c>
       <c r="O3">
-        <v>1388.742774533326</v>
+        <v>1388.743101885655</v>
       </c>
       <c r="P3">
-        <v>1935.821413179566</v>
+        <v>1950.409604703355</v>
       </c>
       <c r="Q3">
-        <v>0.4931102552522019</v>
+        <v>0.4920362700373094</v>
       </c>
       <c r="S3">
-        <v>2.762318939681037</v>
+        <v>2.704050835286059</v>
       </c>
       <c r="T3">
-        <v>0.5275238326652161</v>
+        <v>0.5447814392485495</v>
       </c>
       <c r="U3">
-        <v>0.9862205105044037</v>
+        <v>0.9840725400746188</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3">
-        <v>1265.24176380554</v>
+        <v>1265.241764467202</v>
       </c>
       <c r="X3">
-        <v>101.2478021740942</v>
+        <v>101.2476654864991</v>
       </c>
       <c r="Y3">
-        <v>0.7463046200103791</v>
+        <v>0.7463099669918297</v>
       </c>
       <c r="Z3">
-        <v>1410.077776404654</v>
+        <v>1410.077441067693</v>
       </c>
       <c r="AA3">
-        <v>231.294207242783</v>
+        <v>223.356166582669</v>
       </c>
       <c r="AB3">
-        <v>0.7122703413336546</v>
+        <v>0.6875933897401553</v>
       </c>
       <c r="AC3">
-        <v>1370.388723346935</v>
+        <v>1370.36270374378</v>
       </c>
       <c r="AD3">
-        <v>22.078433680098</v>
+        <v>25.25470610498554</v>
       </c>
       <c r="AE3">
-        <v>0.2451742683179803</v>
-      </c>
-      <c r="AF3">
-        <v>1381.561001000001</v>
-      </c>
-      <c r="AG3">
-        <v>111.4170237157304</v>
-      </c>
-      <c r="AH3">
-        <v>12.2596951271871</v>
+        <v>0.2457200121162914</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -829,97 +814,88 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>103.3066123704502</v>
+        <v>103.3069267255789</v>
       </c>
       <c r="D4">
-        <v>1285.401618508253</v>
+        <v>1285.401620519851</v>
       </c>
       <c r="E4">
-        <v>894.5772780027202</v>
+        <v>894.5764756500467</v>
       </c>
       <c r="F4">
-        <v>1285.401668510754</v>
+        <v>1285.401670522351</v>
       </c>
       <c r="G4">
-        <v>1408.036447592627</v>
+        <v>1408.035509320891</v>
       </c>
       <c r="H4">
-        <v>0.5873058784128821</v>
+        <v>0.5873069761635276</v>
       </c>
       <c r="I4">
-        <v>2.730297314093431</v>
+        <v>2.730284398598684</v>
       </c>
       <c r="J4">
-        <v>0.6380016236865909</v>
+        <v>0.6379976097209344</v>
       </c>
       <c r="K4">
-        <v>1.174611756825764</v>
+        <v>1.174613952327055</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>1388.708230878704</v>
+        <v>1388.70864725043</v>
       </c>
       <c r="N4">
-        <v>1645.391075148092</v>
+        <v>1646.273720359047</v>
       </c>
       <c r="O4">
-        <v>1388.708280881204</v>
+        <v>1388.70859724793</v>
       </c>
       <c r="P4">
-        <v>2139.744563343772</v>
+        <v>2156.275670755686</v>
       </c>
       <c r="Q4">
-        <v>0.5049519239210509</v>
+        <v>0.5043401400230638</v>
       </c>
       <c r="S4">
-        <v>2.501273796746997</v>
+        <v>2.53920185410823</v>
       </c>
       <c r="T4">
-        <v>0.542771200345373</v>
+        <v>0.5593361981196274</v>
       </c>
       <c r="U4">
-        <v>1.009903847842102</v>
+        <v>1.008680280046128</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4">
-        <v>1265.117859551342</v>
+        <v>1265.117878100873</v>
       </c>
       <c r="X4">
-        <v>118.4871160313557</v>
+        <v>118.4897822699402</v>
       </c>
       <c r="Y4">
-        <v>0.8950904627800849</v>
+        <v>0.8950555114017863</v>
       </c>
       <c r="Z4">
-        <v>1410.030257300394</v>
+        <v>1410.029892429322</v>
       </c>
       <c r="AA4">
-        <v>247.6027382743146</v>
+        <v>240.4894838191034</v>
       </c>
       <c r="AB4">
-        <v>0.6507974368620214</v>
+        <v>0.651079058347582</v>
       </c>
       <c r="AC4">
-        <v>1370.326101905163</v>
+        <v>1370.314344974052</v>
       </c>
       <c r="AD4">
-        <v>31.26164096369056</v>
+        <v>34.72236466196305</v>
       </c>
       <c r="AE4">
-        <v>0.2517359973930849</v>
-      </c>
-      <c r="AF4">
-        <v>1381.561001</v>
-      </c>
-      <c r="AG4">
-        <v>114.243864253773</v>
-      </c>
-      <c r="AH4">
-        <v>12.58752123433019</v>
+        <v>0.2519699037281879</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -930,97 +906,88 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>103.3006859854456</v>
+        <v>103.3010307803997</v>
       </c>
       <c r="D5">
-        <v>1285.380956755443</v>
+        <v>1285.380958663241</v>
       </c>
       <c r="E5">
-        <v>1350.103327697697</v>
+        <v>1350.098661424552</v>
       </c>
       <c r="F5">
-        <v>1285.381006757943</v>
+        <v>1285.381008665741</v>
       </c>
       <c r="G5">
-        <v>2155.06570883067</v>
+        <v>2155.054815639189</v>
       </c>
       <c r="H5">
-        <v>0.5861928487108568</v>
+        <v>0.5861967051208495</v>
       </c>
       <c r="I5">
-        <v>2.606141576636285</v>
+        <v>2.606130346724299</v>
       </c>
       <c r="J5">
-        <v>0.6770873844757532</v>
+        <v>0.6770675617173776</v>
       </c>
       <c r="K5">
-        <v>1.172385697421714</v>
+        <v>1.172393410241699</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>1388.681642740889</v>
+        <v>1388.682089448641</v>
       </c>
       <c r="N5">
-        <v>2473.305295643419</v>
+        <v>2473.758251950118</v>
       </c>
       <c r="O5">
-        <v>1388.681692743389</v>
+        <v>1388.682039446141</v>
       </c>
       <c r="P5">
-        <v>3252.660613804348</v>
+        <v>3286.508905214943</v>
       </c>
       <c r="Q5">
-        <v>0.5136777926175082</v>
+        <v>0.5132298439783678</v>
       </c>
       <c r="S5">
-        <v>3.375488656560664</v>
+        <v>3.320412393704315</v>
       </c>
       <c r="T5">
-        <v>0.5294222935532609</v>
+        <v>0.5510608662677928</v>
       </c>
       <c r="U5">
-        <v>1.027355585235016</v>
+        <v>1.026459687956736</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5">
-        <v>1265.141748024909</v>
+        <v>1265.141741598009</v>
       </c>
       <c r="X5">
-        <v>225.1329197165934</v>
+        <v>225.1357157721093</v>
       </c>
       <c r="Y5">
-        <v>0.7535046262482712</v>
+        <v>0.7535216848559679</v>
       </c>
       <c r="Z5">
-        <v>1410.024498971451</v>
+        <v>1410.023726496443</v>
       </c>
       <c r="AA5">
-        <v>374.4881083590296</v>
+        <v>359.9617399949162</v>
       </c>
       <c r="AB5">
-        <v>0.6536049692486464</v>
+        <v>0.6528354792977108</v>
       </c>
       <c r="AC5">
-        <v>1370.30903995832</v>
+        <v>1370.301526295742</v>
       </c>
       <c r="AD5">
-        <v>45.51326368367911</v>
+        <v>50.5860366052519</v>
       </c>
       <c r="AE5">
-        <v>0.2562663154249405</v>
-      </c>
-      <c r="AF5">
-        <v>1381.561001</v>
-      </c>
-      <c r="AG5">
-        <v>239.7899398413753</v>
-      </c>
-      <c r="AH5">
-        <v>12.8143446656447</v>
+        <v>0.256464603271104</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1031,97 +998,88 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>103.2525911018095</v>
+        <v>103.2524778281138</v>
       </c>
       <c r="D6">
-        <v>1285.586971993281</v>
+        <v>1285.586972351238</v>
       </c>
       <c r="E6">
-        <v>858.6196595007328</v>
+        <v>858.619623875882</v>
       </c>
       <c r="F6">
-        <v>1285.587021995781</v>
+        <v>1285.587022353738</v>
       </c>
       <c r="G6">
-        <v>1179.510164236014</v>
+        <v>1179.510070003545</v>
       </c>
       <c r="H6">
-        <v>0.5310479067236259</v>
+        <v>0.5310479465297832</v>
       </c>
       <c r="I6">
-        <v>1.997203341413652</v>
+        <v>1.997210312092277</v>
       </c>
       <c r="J6">
-        <v>0.5493172812529826</v>
+        <v>0.5493170011752813</v>
       </c>
       <c r="K6">
-        <v>1.062095813447252</v>
+        <v>1.062095893059566</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>1388.83956309509</v>
+        <v>1388.839550184352</v>
       </c>
       <c r="N6">
-        <v>1543.704491836095</v>
+        <v>1547.834201509668</v>
       </c>
       <c r="O6">
-        <v>1388.83961309759</v>
+        <v>1388.839500181852</v>
       </c>
       <c r="P6">
-        <v>1808.138792200901</v>
+        <v>1820.054992911216</v>
       </c>
       <c r="Q6">
-        <v>0.462643286045863</v>
+        <v>0.4606134515479932</v>
       </c>
       <c r="S6">
-        <v>2.248075504077255</v>
+        <v>2.004486697662672</v>
       </c>
       <c r="T6">
-        <v>0.4975739177923721</v>
+        <v>0.5152618237013999</v>
       </c>
       <c r="U6">
-        <v>0.925286572091726</v>
+        <v>0.9212269030959864</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W6">
-        <v>1265.336609302935</v>
+        <v>1265.336600551425</v>
       </c>
       <c r="X6">
-        <v>128.6822827375625</v>
+        <v>128.6834098112886</v>
       </c>
       <c r="Y6">
-        <v>0.7151295139390392</v>
+        <v>0.7151001086206119</v>
       </c>
       <c r="Z6">
-        <v>1410.14441810042</v>
+        <v>1410.145391176061</v>
       </c>
       <c r="AA6">
-        <v>210.0502188192287</v>
+        <v>203.1086547692724</v>
       </c>
       <c r="AB6">
-        <v>0.6079883254496207</v>
+        <v>0.6080509383882339</v>
       </c>
       <c r="AC6">
-        <v>1371.911137631101</v>
+        <v>1370.677898818717</v>
       </c>
       <c r="AD6">
-        <v>4.559001483477722</v>
+        <v>25.56198741734005</v>
       </c>
       <c r="AE6">
-        <v>0.02289472105412128</v>
-      </c>
-      <c r="AF6">
-        <v>1382.091767</v>
-      </c>
-      <c r="AG6">
-        <v>77.87137995233343</v>
-      </c>
-      <c r="AH6">
-        <v>11.44284806664026</v>
+        <v>0.2297924512196544</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1132,97 +1090,88 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>103.305631911044</v>
+        <v>103.3060450557925</v>
       </c>
       <c r="D7">
-        <v>1285.373779161455</v>
+        <v>1285.373766775331</v>
       </c>
       <c r="E7">
-        <v>997.883503540026</v>
+        <v>997.8807586954351</v>
       </c>
       <c r="F7">
-        <v>1285.373829163955</v>
+        <v>1285.373816777831</v>
       </c>
       <c r="G7">
-        <v>1565.90646194988</v>
+        <v>1565.900459594033</v>
       </c>
       <c r="H7">
-        <v>0.5908712962934884</v>
+        <v>0.5908746794434715</v>
       </c>
       <c r="I7">
-        <v>3.1781651815199</v>
+        <v>3.178118373688659</v>
       </c>
       <c r="J7">
-        <v>0.6155637148607204</v>
+        <v>0.6155465848531788</v>
       </c>
       <c r="K7">
-        <v>1.181742592586977</v>
+        <v>1.181749358886943</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>1388.679411072499</v>
+        <v>1388.679911836124</v>
       </c>
       <c r="N7">
-        <v>1878.232856316419</v>
+        <v>1878.118164118122</v>
       </c>
       <c r="O7">
-        <v>1388.679461074999</v>
+        <v>1388.679861833624</v>
       </c>
       <c r="P7">
-        <v>2457.1983839794</v>
+        <v>2487.289161894485</v>
       </c>
       <c r="Q7">
-        <v>0.5133085782816013</v>
+        <v>0.5128096347418544</v>
       </c>
       <c r="S7">
-        <v>2.808674429019084</v>
+        <v>3.131702804842152</v>
       </c>
       <c r="T7">
-        <v>0.5195648438093826</v>
+        <v>0.5450614075766015</v>
       </c>
       <c r="U7">
-        <v>1.026617156563203</v>
+        <v>1.025619269483709</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W7">
-        <v>1265.109752690873</v>
+        <v>1265.109716354685</v>
       </c>
       <c r="X7">
-        <v>140.1017211779288</v>
+        <v>140.0726179562591</v>
       </c>
       <c r="Y7">
-        <v>0.8503143347585358</v>
+        <v>0.8505473422315581</v>
       </c>
       <c r="Z7">
-        <v>1410.011320886817</v>
+        <v>1410.009265649027</v>
       </c>
       <c r="AA7">
-        <v>292.2292789543995</v>
+        <v>275.8165168377101</v>
       </c>
       <c r="AB7">
-        <v>0.6718157127217396</v>
+        <v>0.6728393554973572</v>
       </c>
       <c r="AC7">
-        <v>1370.324388795583</v>
+        <v>1369.179787346345</v>
       </c>
       <c r="AD7">
-        <v>31.63658531573078</v>
+        <v>10.78376483255618</v>
       </c>
       <c r="AE7">
-        <v>0.2559720033744262</v>
-      </c>
-      <c r="AF7">
-        <v>1382.309524834963</v>
-      </c>
-      <c r="AG7">
-        <v>222.7662349420968</v>
-      </c>
-      <c r="AH7">
-        <v>12.80167952399977</v>
+        <v>0.2562723526972913</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1233,97 +1182,180 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>103.307474445164</v>
+        <v>103.3031896402858</v>
       </c>
       <c r="D8">
-        <v>1285.34164920064</v>
+        <v>1285.362564335294</v>
       </c>
       <c r="E8">
-        <v>1184.567602376642</v>
+        <v>741.9061403943176</v>
       </c>
       <c r="F8">
-        <v>1285.34169920314</v>
+        <v>1285.362614337794</v>
       </c>
       <c r="G8">
-        <v>1945.258440652212</v>
+        <v>1177.880516490543</v>
       </c>
       <c r="H8">
-        <v>0.6049970384885992</v>
+        <v>0.5933835516983182</v>
       </c>
       <c r="I8">
-        <v>2.982766416196478</v>
+        <v>2.548625396632699</v>
       </c>
       <c r="J8">
-        <v>0.6693835118639467</v>
+        <v>0.6338800400791695</v>
       </c>
       <c r="K8">
-        <v>1.209994076977198</v>
+        <v>1.186767103396636</v>
       </c>
       <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8">
+        <v>1388.66585398058</v>
+      </c>
+      <c r="N8">
+        <v>1383.742900867917</v>
+      </c>
+      <c r="O8">
+        <v>1388.66580397808</v>
+      </c>
+      <c r="P8">
+        <v>1829.128699474774</v>
+      </c>
+      <c r="Q8">
+        <v>0.5145939519359524</v>
+      </c>
+      <c r="S8">
+        <v>2.61933945437258</v>
+      </c>
+      <c r="T8">
+        <v>0.5313510350243816</v>
+      </c>
+      <c r="U8">
+        <v>1.029187903871905</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8">
+        <v>1265.039231716899</v>
+      </c>
+      <c r="X8">
+        <v>81.47131483258386</v>
+      </c>
+      <c r="Y8">
+        <v>0.7489751488838391</v>
+      </c>
+      <c r="Z8">
+        <v>1410.003404873275</v>
+      </c>
+      <c r="AA8">
+        <v>199.3649853054531</v>
+      </c>
+      <c r="AB8">
+        <v>0.7052595252245457</v>
+      </c>
+      <c r="AC8">
+        <v>1371.224837593045</v>
+      </c>
+      <c r="AD8">
+        <v>14.84240419697524</v>
+      </c>
+      <c r="AE8">
+        <v>0.2571747464491866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="M8">
-        <v>1388.649123645804</v>
-      </c>
-      <c r="N8">
-        <v>2189.315646431859</v>
-      </c>
-      <c r="O8">
-        <v>1388.649173648304</v>
-      </c>
-      <c r="P8">
-        <v>2893.38012961062</v>
-      </c>
-      <c r="Q8">
-        <v>0.5115814944531683</v>
-      </c>
-      <c r="S8">
-        <v>3.159328610765636</v>
-      </c>
-      <c r="T8">
-        <v>0.5516534177986309</v>
-      </c>
-      <c r="U8">
-        <v>1.023162988906337</v>
-      </c>
-      <c r="V8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8">
-        <v>1265.101074703243</v>
-      </c>
-      <c r="X8">
-        <v>219.4736524501076</v>
-      </c>
-      <c r="Y8">
-        <v>0.8614058011529234</v>
-      </c>
-      <c r="Z8">
-        <v>1410.010034185356</v>
-      </c>
-      <c r="AA8">
-        <v>346.2165063680382</v>
-      </c>
-      <c r="AB8">
-        <v>0.6712969214940945</v>
-      </c>
-      <c r="AC8">
-        <v>1370.283040968576</v>
-      </c>
-      <c r="AD8">
-        <v>40.97421594551078</v>
-      </c>
-      <c r="AE8">
-        <v>0.2555390062468801</v>
-      </c>
-      <c r="AF8">
-        <v>1381.561001000003</v>
-      </c>
-      <c r="AG8">
-        <v>184.1111119789165</v>
-      </c>
-      <c r="AH8">
-        <v>12.77762891937489</v>
+      <c r="C9">
+        <v>103.307743536961</v>
+      </c>
+      <c r="D9">
+        <v>1285.341648918557</v>
+      </c>
+      <c r="E9">
+        <v>1184.562633089197</v>
+      </c>
+      <c r="F9">
+        <v>1285.341698921057</v>
+      </c>
+      <c r="G9">
+        <v>1945.245294461855</v>
+      </c>
+      <c r="H9">
+        <v>0.6050018850232128</v>
+      </c>
+      <c r="I9">
+        <v>2.982807984269026</v>
+      </c>
+      <c r="J9">
+        <v>0.6693578822525981</v>
+      </c>
+      <c r="K9">
+        <v>1.210003770046426</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9">
+        <v>1388.649492460518</v>
+      </c>
+      <c r="N9">
+        <v>2189.846360184001</v>
+      </c>
+      <c r="O9">
+        <v>1388.649442458018</v>
+      </c>
+      <c r="P9">
+        <v>2924.682708220517</v>
+      </c>
+      <c r="Q9">
+        <v>0.5114156077185964</v>
+      </c>
+      <c r="S9">
+        <v>3.53305136107218</v>
+      </c>
+      <c r="T9">
+        <v>0.5734645962056671</v>
+      </c>
+      <c r="U9">
+        <v>1.022831215437193</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9">
+        <v>1265.101046967438</v>
+      </c>
+      <c r="X9">
+        <v>219.4993340328528</v>
+      </c>
+      <c r="Y9">
+        <v>0.8615791543239871</v>
+      </c>
+      <c r="Z9">
+        <v>1410.009818989039</v>
+      </c>
+      <c r="AA9">
+        <v>342.5938304100743</v>
+      </c>
+      <c r="AB9">
+        <v>0.6646689387041848</v>
+      </c>
+      <c r="AC9">
+        <v>1370.288369184949</v>
+      </c>
+      <c r="AD9">
+        <v>44.81557930143278</v>
+      </c>
+      <c r="AE9">
+        <v>0.255593359812965</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
@@ -630,7 +630,7 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>103.30012767638</v>
+        <v>103.300135879668</v>
       </c>
       <c r="D2">
         <v>1285.470024016274</v>
@@ -660,28 +660,28 @@
         <v>44</v>
       </c>
       <c r="M2">
-        <v>1388.770251697654</v>
+        <v>1388.770259900942</v>
       </c>
       <c r="N2">
-        <v>1865.050083863697</v>
+        <v>1865.161350058632</v>
       </c>
       <c r="O2">
-        <v>1388.770201695154</v>
+        <v>1388.770209898442</v>
       </c>
       <c r="P2">
-        <v>2295.957885464672</v>
+        <v>2296.195837059123</v>
       </c>
       <c r="Q2">
-        <v>0.4800414910895605</v>
+        <v>0.4799943480101776</v>
       </c>
       <c r="S2">
-        <v>2.981931731238296</v>
+        <v>3.098159155625434</v>
       </c>
       <c r="T2">
-        <v>0.5270224816759878</v>
+        <v>0.5273835029111082</v>
       </c>
       <c r="U2">
-        <v>0.9600829821791209</v>
+        <v>0.9599886960203552</v>
       </c>
       <c r="V2" t="s">
         <v>44</v>
@@ -696,22 +696,22 @@
         <v>0.8018044841890961</v>
       </c>
       <c r="Z2">
-        <v>1410.117692329394</v>
+        <v>1410.117700967209</v>
       </c>
       <c r="AA2">
-        <v>255.614031393346</v>
+        <v>255.643187439665</v>
       </c>
       <c r="AB2">
-        <v>0.6082752585574276</v>
+        <v>0.6083805423608668</v>
       </c>
       <c r="AC2">
-        <v>1371.200734214741</v>
+        <v>1369.184195577029</v>
       </c>
       <c r="AD2">
-        <v>24.95856259069507</v>
+        <v>12.20517888828285</v>
       </c>
       <c r="AE2">
-        <v>0.2396590906026543</v>
+        <v>0.2396586910868928</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -722,7 +722,7 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.3338106477925</v>
+        <v>103.3338255422548</v>
       </c>
       <c r="D3">
         <v>1285.409241235363</v>
@@ -752,28 +752,28 @@
         <v>44</v>
       </c>
       <c r="M3">
-        <v>1388.743151888155</v>
+        <v>1388.743166782617</v>
       </c>
       <c r="N3">
-        <v>1535.091099216464</v>
+        <v>1535.203446008299</v>
       </c>
       <c r="O3">
-        <v>1388.743101885655</v>
+        <v>1388.743116780117</v>
       </c>
       <c r="P3">
-        <v>1950.409604703355</v>
+        <v>1950.734449187061</v>
       </c>
       <c r="Q3">
-        <v>0.4920362700373094</v>
+        <v>0.4919741488262277</v>
       </c>
       <c r="S3">
-        <v>2.704050835286059</v>
+        <v>2.942939466986254</v>
       </c>
       <c r="T3">
-        <v>0.5447814392485495</v>
+        <v>0.5453347087019914</v>
       </c>
       <c r="U3">
-        <v>0.9840725400746188</v>
+        <v>0.9839482976524554</v>
       </c>
       <c r="V3" t="s">
         <v>44</v>
@@ -788,22 +788,22 @@
         <v>0.7463099669918297</v>
       </c>
       <c r="Z3">
-        <v>1410.077441067693</v>
+        <v>1410.077438336539</v>
       </c>
       <c r="AA3">
-        <v>223.356166582669</v>
+        <v>223.4168593657085</v>
       </c>
       <c r="AB3">
-        <v>0.6875933897401553</v>
+        <v>0.6878781355861898</v>
       </c>
       <c r="AC3">
-        <v>1370.36270374378</v>
+        <v>1369.196039466222</v>
       </c>
       <c r="AD3">
-        <v>25.25470610498554</v>
+        <v>3.760501237345336</v>
       </c>
       <c r="AE3">
-        <v>0.2457200121162914</v>
+        <v>0.2457162244265287</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -814,7 +814,7 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>103.3069267255789</v>
+        <v>103.3069264252813</v>
       </c>
       <c r="D4">
         <v>1285.401620519851</v>
@@ -844,28 +844,28 @@
         <v>44</v>
       </c>
       <c r="M4">
-        <v>1388.70864725043</v>
+        <v>1388.708646950132</v>
       </c>
       <c r="N4">
-        <v>1646.273720359047</v>
+        <v>1646.273567690826</v>
       </c>
       <c r="O4">
-        <v>1388.70859724793</v>
+        <v>1388.708596947632</v>
       </c>
       <c r="P4">
-        <v>2156.275670755686</v>
+        <v>2156.275771687106</v>
       </c>
       <c r="Q4">
-        <v>0.5043401400230638</v>
+        <v>0.5043402133436925</v>
       </c>
       <c r="S4">
-        <v>2.53920185410823</v>
+        <v>2.539133609290107</v>
       </c>
       <c r="T4">
-        <v>0.5593361981196274</v>
+        <v>0.5593361778146114</v>
       </c>
       <c r="U4">
-        <v>1.008680280046128</v>
+        <v>1.008680426687385</v>
       </c>
       <c r="V4" t="s">
         <v>44</v>
@@ -880,22 +880,22 @@
         <v>0.8950555114017863</v>
       </c>
       <c r="Z4">
-        <v>1410.029892429322</v>
+        <v>1410.029892626208</v>
       </c>
       <c r="AA4">
-        <v>240.4894838191034</v>
+        <v>240.4895425815223</v>
       </c>
       <c r="AB4">
-        <v>0.651079058347582</v>
+        <v>0.6510790748080652</v>
       </c>
       <c r="AC4">
-        <v>1370.314344974052</v>
+        <v>1370.314427822489</v>
       </c>
       <c r="AD4">
-        <v>34.72236466196305</v>
+        <v>34.70685387213599</v>
       </c>
       <c r="AE4">
-        <v>0.2519699037281879</v>
+        <v>0.2519692921272606</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -906,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>103.3010307803997</v>
+        <v>103.3010317965518</v>
       </c>
       <c r="D5">
         <v>1285.380958663241</v>
@@ -936,28 +936,28 @@
         <v>44</v>
       </c>
       <c r="M5">
-        <v>1388.682089448641</v>
+        <v>1388.682090464793</v>
       </c>
       <c r="N5">
-        <v>2473.758251950118</v>
+        <v>2473.763813115619</v>
       </c>
       <c r="O5">
-        <v>1388.682039446141</v>
+        <v>1388.682040462293</v>
       </c>
       <c r="P5">
-        <v>3286.508905214943</v>
+        <v>3286.543689122479</v>
       </c>
       <c r="Q5">
-        <v>0.5132298439783678</v>
+        <v>0.5132275679797801</v>
       </c>
       <c r="S5">
-        <v>3.320412393704315</v>
+        <v>3.342942663867335</v>
       </c>
       <c r="T5">
-        <v>0.5510608662677928</v>
+        <v>0.5510927029344644</v>
       </c>
       <c r="U5">
-        <v>1.026459687956736</v>
+        <v>1.02645513595956</v>
       </c>
       <c r="V5" t="s">
         <v>44</v>
@@ -972,22 +972,22 @@
         <v>0.7535216848559679</v>
       </c>
       <c r="Z5">
-        <v>1410.023726496443</v>
+        <v>1410.023726701798</v>
       </c>
       <c r="AA5">
-        <v>359.9617399949162</v>
+        <v>359.9721309540363</v>
       </c>
       <c r="AB5">
-        <v>0.6528354792977108</v>
+        <v>0.6528278673564269</v>
       </c>
       <c r="AC5">
-        <v>1370.301526295742</v>
+        <v>1370.312458948726</v>
       </c>
       <c r="AD5">
-        <v>50.5860366052519</v>
+        <v>47.48534995287748</v>
       </c>
       <c r="AE5">
-        <v>0.256464603271104</v>
+        <v>0.2564643413273823</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -998,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>103.2524778281138</v>
+        <v>103.252475863462</v>
       </c>
       <c r="D6">
         <v>1285.586972351238</v>
@@ -1028,28 +1028,28 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>1388.839550184352</v>
+        <v>1388.8395482197</v>
       </c>
       <c r="N6">
-        <v>1547.834201509668</v>
+        <v>1547.949272596378</v>
       </c>
       <c r="O6">
-        <v>1388.839500181852</v>
+        <v>1388.8394982172</v>
       </c>
       <c r="P6">
-        <v>1820.054992911216</v>
+        <v>1820.218237122434</v>
       </c>
       <c r="Q6">
-        <v>0.4606134515479932</v>
+        <v>0.4605597013831995</v>
       </c>
       <c r="S6">
-        <v>2.004486697662672</v>
+        <v>2.139296855640777</v>
       </c>
       <c r="T6">
-        <v>0.5152618237013999</v>
+        <v>0.5155992713955349</v>
       </c>
       <c r="U6">
-        <v>0.9212269030959864</v>
+        <v>0.9211194027663989</v>
       </c>
       <c r="V6" t="s">
         <v>44</v>
@@ -1064,22 +1064,22 @@
         <v>0.7151001086206119</v>
       </c>
       <c r="Z6">
-        <v>1410.145391176061</v>
+        <v>1410.145378400677</v>
       </c>
       <c r="AA6">
-        <v>203.1086547692724</v>
+        <v>203.1441747114904</v>
       </c>
       <c r="AB6">
-        <v>0.6080509383882339</v>
+        <v>0.6080119621150195</v>
       </c>
       <c r="AC6">
-        <v>1370.677898818717</v>
+        <v>1371.159632636185</v>
       </c>
       <c r="AD6">
-        <v>25.56198741734005</v>
+        <v>13.4412817807938</v>
       </c>
       <c r="AE6">
-        <v>0.2297924512196544</v>
+        <v>0.2297923557885428</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1090,7 +1090,7 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>103.3060450557925</v>
+        <v>103.3060452136017</v>
       </c>
       <c r="D7">
         <v>1285.373766775331</v>
@@ -1120,28 +1120,28 @@
         <v>44</v>
       </c>
       <c r="M7">
-        <v>1388.679911836124</v>
+        <v>1388.679911993933</v>
       </c>
       <c r="N7">
-        <v>1878.118164118122</v>
+        <v>1878.118281975277</v>
       </c>
       <c r="O7">
-        <v>1388.679861833624</v>
+        <v>1388.679861991433</v>
       </c>
       <c r="P7">
-        <v>2487.289161894485</v>
+        <v>2487.28923961154</v>
       </c>
       <c r="Q7">
-        <v>0.5128096347418544</v>
+        <v>0.5128095786982665</v>
       </c>
       <c r="S7">
-        <v>3.131702804842152</v>
+        <v>3.131710173606903</v>
       </c>
       <c r="T7">
-        <v>0.5450614075766015</v>
+        <v>0.5450616074977804</v>
       </c>
       <c r="U7">
-        <v>1.025619269483709</v>
+        <v>1.025619157396533</v>
       </c>
       <c r="V7" t="s">
         <v>44</v>
@@ -1156,22 +1156,22 @@
         <v>0.8505473422315581</v>
       </c>
       <c r="Z7">
-        <v>1410.009265649027</v>
+        <v>1410.009265590518</v>
       </c>
       <c r="AA7">
-        <v>275.8165168377101</v>
+        <v>275.816500157199</v>
       </c>
       <c r="AB7">
-        <v>0.6728393554973572</v>
+        <v>0.6728392920520275</v>
       </c>
       <c r="AC7">
-        <v>1369.179787346345</v>
+        <v>1369.179449175322</v>
       </c>
       <c r="AD7">
-        <v>10.78376483255618</v>
+        <v>10.78770316953782</v>
       </c>
       <c r="AE7">
-        <v>0.2562723526972913</v>
+        <v>0.2562731797252413</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1182,7 +1182,7 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>103.3031896402858</v>
+        <v>103.3032998517817</v>
       </c>
       <c r="D8">
         <v>1285.362564335294</v>
@@ -1212,28 +1212,28 @@
         <v>44</v>
       </c>
       <c r="M8">
-        <v>1388.66585398058</v>
+        <v>1388.665964192076</v>
       </c>
       <c r="N8">
-        <v>1383.742900867917</v>
+        <v>1383.807595223978</v>
       </c>
       <c r="O8">
-        <v>1388.66580397808</v>
+        <v>1388.665914189576</v>
       </c>
       <c r="P8">
-        <v>1829.128699474774</v>
+        <v>1829.198093043822</v>
       </c>
       <c r="Q8">
-        <v>0.5145939519359524</v>
+        <v>0.5145501038564645</v>
       </c>
       <c r="S8">
-        <v>2.61933945437258</v>
+        <v>2.617684887504798</v>
       </c>
       <c r="T8">
-        <v>0.5313510350243816</v>
+        <v>0.5315474342961506</v>
       </c>
       <c r="U8">
-        <v>1.029187903871905</v>
+        <v>1.029100207712929</v>
       </c>
       <c r="V8" t="s">
         <v>44</v>
@@ -1248,22 +1248,22 @@
         <v>0.7489751488838391</v>
       </c>
       <c r="Z8">
-        <v>1410.003404873275</v>
+        <v>1410.003405004466</v>
       </c>
       <c r="AA8">
-        <v>199.3649853054531</v>
+        <v>199.3622425849727</v>
       </c>
       <c r="AB8">
-        <v>0.7052595252245457</v>
+        <v>0.7052610027123137</v>
       </c>
       <c r="AC8">
-        <v>1371.224837593045</v>
+        <v>1371.225091295636</v>
       </c>
       <c r="AD8">
-        <v>14.84240419697524</v>
+        <v>14.84828063850859</v>
       </c>
       <c r="AE8">
-        <v>0.2571747464491866</v>
+        <v>0.2571747799808753</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1274,7 +1274,7 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>103.307743536961</v>
+        <v>103.3077507680102</v>
       </c>
       <c r="D9">
         <v>1285.341648918557</v>
@@ -1304,28 +1304,28 @@
         <v>44</v>
       </c>
       <c r="M9">
-        <v>1388.649492460518</v>
+        <v>1388.649499691568</v>
       </c>
       <c r="N9">
-        <v>2189.846360184001</v>
+        <v>2189.886277459186</v>
       </c>
       <c r="O9">
-        <v>1388.649442458018</v>
+        <v>1388.649449689068</v>
       </c>
       <c r="P9">
-        <v>2924.682708220517</v>
+        <v>2925.083423797566</v>
       </c>
       <c r="Q9">
-        <v>0.5114156077185964</v>
+        <v>0.5113938462770532</v>
       </c>
       <c r="S9">
-        <v>3.53305136107218</v>
+        <v>3.959809784928344</v>
       </c>
       <c r="T9">
-        <v>0.5734645962056671</v>
+        <v>0.5738638351869245</v>
       </c>
       <c r="U9">
-        <v>1.022831215437193</v>
+        <v>1.022787692554106</v>
       </c>
       <c r="V9" t="s">
         <v>44</v>
@@ -1340,22 +1340,22 @@
         <v>0.8615791543239871</v>
       </c>
       <c r="Z9">
-        <v>1410.009818989039</v>
+        <v>1410.009798128594</v>
       </c>
       <c r="AA9">
-        <v>342.5938304100743</v>
+        <v>342.6787436873864</v>
       </c>
       <c r="AB9">
-        <v>0.6646689387041848</v>
+        <v>0.6649263291716057</v>
       </c>
       <c r="AC9">
-        <v>1370.288369184949</v>
+        <v>1371.781029057047</v>
       </c>
       <c r="AD9">
-        <v>44.81557930143278</v>
+        <v>11.12799435331445</v>
       </c>
       <c r="AE9">
-        <v>0.255593359812965</v>
+        <v>0.2555933995821887</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -22,9 +22,18 @@
     <t>Splitting</t>
   </si>
   <si>
+    <t>Split_err_abs</t>
+  </si>
+  <si>
+    <t>Split_err_quadrature</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad1_cent_err</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Height</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
   </si>
   <si>
     <t>Diad2_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_cent_err</t>
   </si>
   <si>
     <t>Diad2_Combofit_Height</t>
@@ -506,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,741 +633,813 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>103.300135879668</v>
+        <v>103.3001275115473</v>
       </c>
       <c r="D2">
-        <v>1285.470024016274</v>
+        <v>0.00284</v>
       </c>
       <c r="E2">
-        <v>988.9448579984597</v>
+        <v>0.002090215299915298</v>
       </c>
       <c r="F2">
-        <v>1285.470074018774</v>
+        <v>1285.470024218834</v>
       </c>
       <c r="G2">
-        <v>1433.106847156976</v>
+        <v>0.00183</v>
       </c>
       <c r="H2">
-        <v>0.5526606420470734</v>
+        <v>988.9447625563595</v>
       </c>
       <c r="I2">
-        <v>2.918337522478685</v>
+        <v>1285.470074221334</v>
       </c>
       <c r="J2">
-        <v>0.5834876548155535</v>
+        <v>1433.106729155515</v>
       </c>
       <c r="K2">
-        <v>1.105321284094147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
+        <v>0.5526607383916854</v>
+      </c>
+      <c r="L2">
+        <v>2.918337425880185</v>
       </c>
       <c r="M2">
-        <v>1388.770259900942</v>
+        <v>0.583487251346276</v>
       </c>
       <c r="N2">
-        <v>1865.161350058632</v>
-      </c>
-      <c r="O2">
-        <v>1388.770209898442</v>
+        <v>1.105321476783371</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
       </c>
       <c r="P2">
-        <v>2296.195837059123</v>
+        <v>1388.770251735381</v>
       </c>
       <c r="Q2">
-        <v>0.4799943480101776</v>
+        <v>0.00101</v>
+      </c>
+      <c r="R2">
+        <v>1865.050087900247</v>
       </c>
       <c r="S2">
-        <v>3.098159155625434</v>
+        <v>1388.770201732881</v>
       </c>
       <c r="T2">
-        <v>0.5273835029111082</v>
+        <v>2295.957876844293</v>
       </c>
       <c r="U2">
-        <v>0.9599886960203552</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
+        <v>0.4800414907782372</v>
       </c>
       <c r="W2">
-        <v>1265.202382475691</v>
+        <v>2.981931218669617</v>
       </c>
       <c r="X2">
-        <v>102.3323778189052</v>
+        <v>0.5270224678879835</v>
       </c>
       <c r="Y2">
-        <v>0.8018044841890961</v>
-      </c>
-      <c r="Z2">
-        <v>1410.117700967209</v>
+        <v>0.9600829815564743</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>48</v>
       </c>
       <c r="AA2">
-        <v>255.643187439665</v>
+        <v>1265.20238248543</v>
       </c>
       <c r="AB2">
-        <v>0.6083805423608668</v>
+        <v>102.3323757836743</v>
       </c>
       <c r="AC2">
-        <v>1369.184195577029</v>
+        <v>0.801804627174481</v>
       </c>
       <c r="AD2">
-        <v>12.20517888828285</v>
+        <v>1410.117692412663</v>
       </c>
       <c r="AE2">
-        <v>0.2396586910868928</v>
+        <v>255.6139528573827</v>
+      </c>
+      <c r="AF2">
+        <v>0.6082758618519937</v>
+      </c>
+      <c r="AG2">
+        <v>1371.200733191896</v>
+      </c>
+      <c r="AH2">
+        <v>24.95844077179569</v>
+      </c>
+      <c r="AI2">
+        <v>0.2396594143607584</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>103.3338255422548</v>
+        <v>103.3338108167045</v>
       </c>
       <c r="D3">
-        <v>1285.409241235363</v>
+        <v>0.00302</v>
       </c>
       <c r="E3">
-        <v>815.5835901015083</v>
+        <v>0.002166887168266959</v>
       </c>
       <c r="F3">
-        <v>1285.409291237863</v>
+        <v>1285.409241156897</v>
       </c>
       <c r="G3">
-        <v>1225.330099018845</v>
+        <v>0.00177</v>
       </c>
       <c r="H3">
-        <v>0.5569706645183105</v>
+        <v>815.5836622657513</v>
       </c>
       <c r="I3">
-        <v>2.339882601869372</v>
+        <v>1285.409291159397</v>
       </c>
       <c r="J3">
-        <v>0.6539942536879194</v>
+        <v>1225.330166596846</v>
       </c>
       <c r="K3">
-        <v>1.113941329036621</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
+        <v>0.556970575662959</v>
+      </c>
+      <c r="L3">
+        <v>2.339882688767294</v>
       </c>
       <c r="M3">
-        <v>1388.743166782617</v>
+        <v>0.6539945627595156</v>
       </c>
       <c r="N3">
-        <v>1535.203446008299</v>
-      </c>
-      <c r="O3">
-        <v>1388.743116780117</v>
+        <v>1.113941151325918</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
       </c>
       <c r="P3">
-        <v>1950.734449187061</v>
+        <v>1388.743151978602</v>
       </c>
       <c r="Q3">
-        <v>0.4919741488262277</v>
+        <v>0.00125</v>
+      </c>
+      <c r="R3">
+        <v>1535.09123885693</v>
       </c>
       <c r="S3">
-        <v>2.942939466986254</v>
+        <v>1388.743101976102</v>
       </c>
       <c r="T3">
-        <v>0.5453347087019914</v>
+        <v>1950.409825502654</v>
       </c>
       <c r="U3">
-        <v>0.9839482976524554</v>
-      </c>
-      <c r="V3" t="s">
-        <v>44</v>
+        <v>0.4920361949202328</v>
       </c>
       <c r="W3">
-        <v>1265.241764467202</v>
+        <v>2.704154294701641</v>
       </c>
       <c r="X3">
-        <v>101.2476654864991</v>
+        <v>0.5447818793539625</v>
       </c>
       <c r="Y3">
-        <v>0.7463099669918297</v>
-      </c>
-      <c r="Z3">
-        <v>1410.077438336539</v>
+        <v>0.9840723898404655</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
       </c>
       <c r="AA3">
-        <v>223.4168593657085</v>
+        <v>1265.24176447645</v>
       </c>
       <c r="AB3">
-        <v>0.6878781355861898</v>
+        <v>101.2476738290779</v>
       </c>
       <c r="AC3">
-        <v>1369.196039466222</v>
+        <v>0.7463094195392324</v>
       </c>
       <c r="AD3">
-        <v>3.760501237345336</v>
+        <v>1410.07744109423</v>
       </c>
       <c r="AE3">
-        <v>0.2457162244265287</v>
+        <v>223.3562026881224</v>
+      </c>
+      <c r="AF3">
+        <v>0.6875935622364313</v>
+      </c>
+      <c r="AG3">
+        <v>1370.363006784529</v>
+      </c>
+      <c r="AH3">
+        <v>25.23506880600382</v>
+      </c>
+      <c r="AI3">
+        <v>0.2457192656728297</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>103.3069264252813</v>
+        <v>103.3069278981677</v>
       </c>
       <c r="D4">
-        <v>1285.401620519851</v>
+        <v>0.00454</v>
       </c>
       <c r="E4">
-        <v>894.5764756500467</v>
+        <v>0.003502284968417048</v>
       </c>
       <c r="F4">
-        <v>1285.401670522351</v>
+        <v>1285.401620260415</v>
       </c>
       <c r="G4">
-        <v>1408.035509320891</v>
+        <v>0.00326</v>
       </c>
       <c r="H4">
-        <v>0.5873069761635276</v>
+        <v>894.5760598357432</v>
       </c>
       <c r="I4">
-        <v>2.730284398598684</v>
+        <v>1285.401670262915</v>
       </c>
       <c r="J4">
-        <v>0.6379976097209344</v>
+        <v>1408.035216662493</v>
       </c>
       <c r="K4">
-        <v>1.174613952327055</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
+        <v>0.5873074890845776</v>
+      </c>
+      <c r="L4">
+        <v>2.73028985885123</v>
       </c>
       <c r="M4">
-        <v>1388.708646950132</v>
+        <v>0.6379960730781123</v>
       </c>
       <c r="N4">
-        <v>1646.273567690826</v>
-      </c>
-      <c r="O4">
-        <v>1388.708596947632</v>
+        <v>1.174614978169155</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
       </c>
       <c r="P4">
-        <v>2156.275771687106</v>
+        <v>1388.708648163583</v>
       </c>
       <c r="Q4">
-        <v>0.5043402133436925</v>
+        <v>0.00128</v>
+      </c>
+      <c r="R4">
+        <v>1646.280180725079</v>
       </c>
       <c r="S4">
-        <v>2.539133609290107</v>
+        <v>1388.708598161083</v>
       </c>
       <c r="T4">
-        <v>0.5593361778146114</v>
+        <v>2156.307344215023</v>
       </c>
       <c r="U4">
-        <v>1.008680426687385</v>
-      </c>
-      <c r="V4" t="s">
-        <v>44</v>
+        <v>0.5043365654601331</v>
       </c>
       <c r="W4">
-        <v>1265.117878100873</v>
+        <v>2.570167096328094</v>
       </c>
       <c r="X4">
-        <v>118.4897822699402</v>
+        <v>0.5593802263665194</v>
       </c>
       <c r="Y4">
-        <v>0.8950555114017863</v>
-      </c>
-      <c r="Z4">
-        <v>1410.029892626208</v>
+        <v>1.008673130920266</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
       </c>
       <c r="AA4">
-        <v>240.4895425815223</v>
+        <v>1265.117868946772</v>
       </c>
       <c r="AB4">
-        <v>0.6510790748080652</v>
+        <v>118.4877711345881</v>
       </c>
       <c r="AC4">
-        <v>1370.314427822489</v>
+        <v>0.8950807458652681</v>
       </c>
       <c r="AD4">
-        <v>34.70685387213599</v>
+        <v>1410.029892389665</v>
       </c>
       <c r="AE4">
-        <v>0.2519692921272606</v>
+        <v>240.5008031753221</v>
+      </c>
+      <c r="AF4">
+        <v>0.6510665975504503</v>
+      </c>
+      <c r="AG4">
+        <v>1370.599368698509</v>
+      </c>
+      <c r="AH4">
+        <v>29.96538600911319</v>
+      </c>
+      <c r="AI4">
+        <v>0.2519697882420668</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>103.3010317965518</v>
-      </c>
-      <c r="D5">
-        <v>1285.380958663241</v>
-      </c>
-      <c r="E5">
-        <v>1350.098661424552</v>
+        <v>103.3010395221575</v>
       </c>
       <c r="F5">
-        <v>1285.381008665741</v>
-      </c>
-      <c r="G5">
-        <v>2155.054815639189</v>
+        <v>1285.380950644217</v>
       </c>
       <c r="H5">
-        <v>0.5861967051208495</v>
+        <v>1350.098658951685</v>
       </c>
       <c r="I5">
-        <v>2.606130346724299</v>
+        <v>1285.381000646717</v>
       </c>
       <c r="J5">
-        <v>0.6770675617173776</v>
+        <v>2155.05514656322</v>
       </c>
       <c r="K5">
-        <v>1.172393410241699</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
+        <v>0.5861968908412568</v>
+      </c>
+      <c r="L5">
+        <v>2.606137731588801</v>
       </c>
       <c r="M5">
-        <v>1388.682090464793</v>
+        <v>0.6770671704029785</v>
       </c>
       <c r="N5">
-        <v>2473.763813115619</v>
-      </c>
-      <c r="O5">
-        <v>1388.682040462293</v>
+        <v>1.172393781682514</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
       </c>
       <c r="P5">
-        <v>3286.543689122479</v>
+        <v>1388.682090171375</v>
       </c>
       <c r="Q5">
-        <v>0.5132275679797801</v>
+        <v>0.00108</v>
+      </c>
+      <c r="R5">
+        <v>2473.763433395881</v>
       </c>
       <c r="S5">
-        <v>3.342942663867335</v>
+        <v>1388.682040168875</v>
       </c>
       <c r="T5">
-        <v>0.5510927029344644</v>
+        <v>3286.543283427551</v>
       </c>
       <c r="U5">
-        <v>1.02645513595956</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
+        <v>0.5132277110661194</v>
       </c>
       <c r="W5">
-        <v>1265.141741598009</v>
+        <v>3.342951449103059</v>
       </c>
       <c r="X5">
-        <v>225.1357157721093</v>
+        <v>0.5510920683940045</v>
       </c>
       <c r="Y5">
-        <v>0.7535216848559679</v>
-      </c>
-      <c r="Z5">
-        <v>1410.023726701798</v>
+        <v>1.026455422132239</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
       </c>
       <c r="AA5">
-        <v>359.9721309540363</v>
+        <v>1265.141741547915</v>
       </c>
       <c r="AB5">
-        <v>0.6528278673564269</v>
+        <v>225.1357170601105</v>
       </c>
       <c r="AC5">
-        <v>1370.312458948726</v>
+        <v>0.753521738703524</v>
       </c>
       <c r="AD5">
-        <v>47.48534995287748</v>
+        <v>1410.023726704886</v>
       </c>
       <c r="AE5">
-        <v>0.2564643413273823</v>
+        <v>359.972150413653</v>
+      </c>
+      <c r="AF5">
+        <v>0.6528277779392482</v>
+      </c>
+      <c r="AG5">
+        <v>1370.31245887703</v>
+      </c>
+      <c r="AH5">
+        <v>47.48535288301242</v>
+      </c>
+      <c r="AI5">
+        <v>0.2564642403779516</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>103.252475863462</v>
+        <v>103.25247720026</v>
       </c>
       <c r="D6">
-        <v>1285.586972351238</v>
+        <v>0.002237</v>
       </c>
       <c r="E6">
-        <v>858.619623875882</v>
+        <v>0.001671277654969395</v>
       </c>
       <c r="F6">
-        <v>1285.587022353738</v>
+        <v>1285.586972031724</v>
       </c>
       <c r="G6">
-        <v>1179.510070003545</v>
+        <v>0.0015</v>
       </c>
       <c r="H6">
-        <v>0.5310479465297832</v>
+        <v>858.6196462984607</v>
       </c>
       <c r="I6">
-        <v>1.997210312092277</v>
+        <v>1285.587022034224</v>
       </c>
       <c r="J6">
-        <v>0.5493170011752813</v>
+        <v>1179.510115201747</v>
       </c>
       <c r="K6">
-        <v>1.062095893059566</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
+        <v>0.5310479220429358</v>
+      </c>
+      <c r="L6">
+        <v>1.997212682716575</v>
       </c>
       <c r="M6">
-        <v>1388.8395482197</v>
+        <v>0.5493171500494235</v>
       </c>
       <c r="N6">
-        <v>1547.949272596378</v>
-      </c>
-      <c r="O6">
-        <v>1388.8394982172</v>
+        <v>1.062095844085872</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
       </c>
       <c r="P6">
-        <v>1820.218237122434</v>
+        <v>1388.839549236985</v>
       </c>
       <c r="Q6">
-        <v>0.4605597013831995</v>
+        <v>0.000737</v>
+      </c>
+      <c r="R6">
+        <v>1547.88806296731</v>
       </c>
       <c r="S6">
-        <v>2.139296855640777</v>
+        <v>1388.839499234484</v>
       </c>
       <c r="T6">
-        <v>0.5155992713955349</v>
+        <v>1820.132849326528</v>
       </c>
       <c r="U6">
-        <v>0.9211194027663989</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
+        <v>0.46058840286098</v>
       </c>
       <c r="W6">
-        <v>1265.336600551425</v>
+        <v>2.048995397492688</v>
       </c>
       <c r="X6">
-        <v>128.6834098112886</v>
+        <v>0.515420564601423</v>
       </c>
       <c r="Y6">
-        <v>0.7151001086206119</v>
-      </c>
-      <c r="Z6">
-        <v>1410.145378400677</v>
+        <v>0.9211768057219599</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>48</v>
       </c>
       <c r="AA6">
-        <v>203.1441747114904</v>
+        <v>1265.336600548907</v>
       </c>
       <c r="AB6">
-        <v>0.6080119621150195</v>
+        <v>128.6834076152618</v>
       </c>
       <c r="AC6">
-        <v>1371.159632636185</v>
+        <v>0.7151000742016528</v>
       </c>
       <c r="AD6">
-        <v>13.4412817807938</v>
+        <v>1410.145385844362</v>
       </c>
       <c r="AE6">
-        <v>0.2297923557885428</v>
+        <v>203.1236646688626</v>
+      </c>
+      <c r="AF6">
+        <v>0.6080352018977694</v>
+      </c>
+      <c r="AG6">
+        <v>1370.367824436326</v>
+      </c>
+      <c r="AH6">
+        <v>19.13738958356594</v>
+      </c>
+      <c r="AI6">
+        <v>0.2297923549731922</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>103.3060452136017</v>
-      </c>
-      <c r="D7">
-        <v>1285.373766775331</v>
-      </c>
-      <c r="E7">
-        <v>997.8807586954351</v>
+        <v>103.3060348593001</v>
       </c>
       <c r="F7">
-        <v>1285.373816777831</v>
-      </c>
-      <c r="G7">
-        <v>1565.900459594033</v>
+        <v>1285.373767647719</v>
       </c>
       <c r="H7">
-        <v>0.5908746794434715</v>
+        <v>997.8808322152316</v>
       </c>
       <c r="I7">
-        <v>3.178118373688659</v>
+        <v>1285.373817650219</v>
       </c>
       <c r="J7">
-        <v>0.6155465848531788</v>
+        <v>1565.900510199585</v>
       </c>
       <c r="K7">
-        <v>1.181749358886943</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
+        <v>0.5908745790041018</v>
+      </c>
+      <c r="L7">
+        <v>3.178118101655344</v>
       </c>
       <c r="M7">
-        <v>1388.679911993933</v>
+        <v>0.6155469047754594</v>
       </c>
       <c r="N7">
-        <v>1878.118281975277</v>
-      </c>
-      <c r="O7">
-        <v>1388.679861991433</v>
+        <v>1.181749158008204</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
       </c>
       <c r="P7">
-        <v>2487.28923961154</v>
+        <v>1388.679902512019</v>
       </c>
       <c r="Q7">
-        <v>0.5128095786982665</v>
+        <v>0.00128</v>
+      </c>
+      <c r="R7">
+        <v>1878.068314673153</v>
       </c>
       <c r="S7">
-        <v>3.131710173606903</v>
+        <v>1388.679852509519</v>
       </c>
       <c r="T7">
-        <v>0.5450616074977804</v>
+        <v>2486.955780978396</v>
       </c>
       <c r="U7">
-        <v>1.025619157396533</v>
-      </c>
-      <c r="V7" t="s">
-        <v>44</v>
+        <v>0.5128371503402582</v>
       </c>
       <c r="W7">
-        <v>1265.109716354685</v>
+        <v>2.809103562500914</v>
       </c>
       <c r="X7">
-        <v>140.0726179562591</v>
+        <v>0.5446571324604389</v>
       </c>
       <c r="Y7">
-        <v>0.8505473422315581</v>
-      </c>
-      <c r="Z7">
-        <v>1410.009265590518</v>
+        <v>1.025674300680516</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>48</v>
       </c>
       <c r="AA7">
-        <v>275.816500157199</v>
+        <v>1265.109716454702</v>
       </c>
       <c r="AB7">
-        <v>0.6728392920520275</v>
+        <v>140.0725966249752</v>
       </c>
       <c r="AC7">
-        <v>1369.179449175322</v>
+        <v>0.8505464434302338</v>
       </c>
       <c r="AD7">
-        <v>10.78770316953782</v>
+        <v>1410.009248213728</v>
       </c>
       <c r="AE7">
-        <v>0.2562731797252413</v>
+        <v>275.7112639468004</v>
+      </c>
+      <c r="AF7">
+        <v>0.6729725436533109</v>
+      </c>
+      <c r="AG7">
+        <v>1370.322317635334</v>
+      </c>
+      <c r="AH7">
+        <v>34.08628983793483</v>
+      </c>
+      <c r="AI7">
+        <v>0.2562726557539015</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>103.3032998517817</v>
-      </c>
-      <c r="D8">
-        <v>1285.362564335294</v>
-      </c>
-      <c r="E8">
-        <v>741.9061403943176</v>
+        <v>103.3032768640026</v>
       </c>
       <c r="F8">
-        <v>1285.362614337794</v>
+        <v>1285.362566452665</v>
       </c>
       <c r="G8">
-        <v>1177.880516490543</v>
+        <v>0.00265</v>
       </c>
       <c r="H8">
-        <v>0.5933835516983182</v>
+        <v>741.9066878607193</v>
       </c>
       <c r="I8">
-        <v>2.548625396632699</v>
+        <v>1285.362616455165</v>
       </c>
       <c r="J8">
-        <v>0.6338800400791695</v>
+        <v>1177.881031413747</v>
       </c>
       <c r="K8">
-        <v>1.186767103396636</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
+        <v>0.593382651329598</v>
+      </c>
+      <c r="L8">
+        <v>2.54862684359876</v>
       </c>
       <c r="M8">
-        <v>1388.665964192076</v>
+        <v>0.63388304386915</v>
       </c>
       <c r="N8">
-        <v>1383.807595223978</v>
-      </c>
-      <c r="O8">
-        <v>1388.665914189576</v>
+        <v>1.186765302659196</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
       </c>
       <c r="P8">
-        <v>1829.198093043822</v>
-      </c>
-      <c r="Q8">
-        <v>0.5145501038564645</v>
+        <v>1388.665943321668</v>
+      </c>
+      <c r="R8">
+        <v>1383.795315118154</v>
       </c>
       <c r="S8">
-        <v>2.617684887504798</v>
+        <v>1388.665893319167</v>
       </c>
       <c r="T8">
-        <v>0.5315474342961506</v>
+        <v>1829.184776978153</v>
       </c>
       <c r="U8">
-        <v>1.029100207712929</v>
-      </c>
-      <c r="V8" t="s">
-        <v>44</v>
+        <v>0.5145584299508608</v>
       </c>
       <c r="W8">
-        <v>1265.039231716899</v>
+        <v>2.618030256133117</v>
       </c>
       <c r="X8">
-        <v>81.47131483258386</v>
+        <v>0.5315099424371011</v>
       </c>
       <c r="Y8">
-        <v>0.7489751488838391</v>
-      </c>
-      <c r="Z8">
-        <v>1410.003405004466</v>
+        <v>1.029116859901722</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>48</v>
       </c>
       <c r="AA8">
-        <v>199.3622425849727</v>
+        <v>1265.039231718528</v>
       </c>
       <c r="AB8">
-        <v>0.7052610027123137</v>
+        <v>81.4714294092857</v>
       </c>
       <c r="AC8">
-        <v>1371.225091295636</v>
+        <v>0.7489749616648999</v>
       </c>
       <c r="AD8">
-        <v>14.84828063850859</v>
+        <v>1410.003405028286</v>
       </c>
       <c r="AE8">
-        <v>0.2571747799808753</v>
+        <v>199.36272342866</v>
+      </c>
+      <c r="AF8">
+        <v>0.7052607935304686</v>
+      </c>
+      <c r="AG8">
+        <v>1371.225501161512</v>
+      </c>
+      <c r="AH8">
+        <v>14.8580798362567</v>
+      </c>
+      <c r="AI8">
+        <v>0.2571747779060946</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>103.3077507680102</v>
-      </c>
-      <c r="D9">
-        <v>1285.341648918557</v>
-      </c>
-      <c r="E9">
-        <v>1184.562633089197</v>
+        <v>103.3077438140626</v>
       </c>
       <c r="F9">
-        <v>1285.341698921057</v>
+        <v>1285.341648895762</v>
       </c>
       <c r="G9">
-        <v>1945.245294461855</v>
+        <v>0.00213</v>
       </c>
       <c r="H9">
-        <v>0.6050018850232128</v>
+        <v>1184.562521224834</v>
       </c>
       <c r="I9">
-        <v>2.982807984269026</v>
+        <v>1285.341698898262</v>
       </c>
       <c r="J9">
-        <v>0.6693578822525981</v>
+        <v>1945.245170559057</v>
       </c>
       <c r="K9">
-        <v>1.210003770046426</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
+        <v>0.6050020040692057</v>
+      </c>
+      <c r="L9">
+        <v>2.982807765110913</v>
       </c>
       <c r="M9">
-        <v>1388.649499691568</v>
+        <v>0.6693574783750242</v>
       </c>
       <c r="N9">
-        <v>2189.886277459186</v>
-      </c>
-      <c r="O9">
-        <v>1388.649449689068</v>
+        <v>1.210004008138411</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
       </c>
       <c r="P9">
-        <v>2925.083423797566</v>
-      </c>
-      <c r="Q9">
-        <v>0.5113938462770532</v>
+        <v>1388.649492714825</v>
+      </c>
+      <c r="R9">
+        <v>2189.849117685088</v>
       </c>
       <c r="S9">
-        <v>3.959809784928344</v>
+        <v>1388.649442712325</v>
       </c>
       <c r="T9">
-        <v>0.5738638351869245</v>
+        <v>2924.712455560641</v>
       </c>
       <c r="U9">
-        <v>1.022787692554106</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
+        <v>0.5114140990811215</v>
       </c>
       <c r="W9">
-        <v>1265.101046967438</v>
+        <v>3.557065201373308</v>
       </c>
       <c r="X9">
-        <v>219.4993340328528</v>
+        <v>0.5734938485577813</v>
       </c>
       <c r="Y9">
-        <v>0.8615791543239871</v>
-      </c>
-      <c r="Z9">
-        <v>1410.009798128594</v>
+        <v>1.022828198162243</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>48</v>
       </c>
       <c r="AA9">
-        <v>342.6787436873864</v>
+        <v>1265.10104699577</v>
       </c>
       <c r="AB9">
-        <v>0.6649263291716057</v>
+        <v>219.4993388964008</v>
       </c>
       <c r="AC9">
-        <v>1371.781029057047</v>
+        <v>0.8615792401831359</v>
       </c>
       <c r="AD9">
-        <v>11.12799435331445</v>
+        <v>1410.009817470318</v>
       </c>
       <c r="AE9">
-        <v>0.2555933995821887</v>
+        <v>342.6000059785636</v>
+      </c>
+      <c r="AF9">
+        <v>0.6646875034346202</v>
+      </c>
+      <c r="AG9">
+        <v>1370.298544120003</v>
+      </c>
+      <c r="AH9">
+        <v>42.06859430400307</v>
+      </c>
+      <c r="AI9">
+        <v>0.2555933991687717</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Medium_Diads.xlsx
@@ -142,22 +142,22 @@
     <t>K21-61-FI#3</t>
   </si>
   <si>
-    <t>K21-64-FI#1_CRR_DiadFit</t>
-  </si>
-  <si>
-    <t>K21-64-FI#3_CRR_DiadFit</t>
+    <t>K21-64-FI#1</t>
+  </si>
+  <si>
+    <t>K21-64-FI#3</t>
   </si>
   <si>
     <t>K21-64-FI#4</t>
   </si>
   <si>
-    <t>K21-64-FI#5_CRR_DiadFit</t>
-  </si>
-  <si>
-    <t>K21-64-FI#6_CRR_DiadFit</t>
-  </si>
-  <si>
-    <t>K21-64-FI#7_CRR_DiadFit</t>
+    <t>K21-64-FI#5</t>
+  </si>
+  <si>
+    <t>K21-64-FI#6</t>
+  </si>
+  <si>
+    <t>K21-64-FI#7</t>
   </si>
   <si>
     <t>Flagged Warnings:</t>
@@ -654,40 +654,40 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>103.3001275115473</v>
+        <v>103.3001276631323</v>
       </c>
       <c r="D2">
-        <v>0.00284</v>
+        <v>0.003265494907594278</v>
       </c>
       <c r="E2">
-        <v>0.002090215299915298</v>
+        <v>0.002477130814084896</v>
       </c>
       <c r="F2">
-        <v>1285.470024218834</v>
+        <v>1285.470024067249</v>
       </c>
       <c r="G2">
-        <v>0.00183</v>
+        <v>0.002266959001439887</v>
       </c>
       <c r="H2">
-        <v>988.9447625563595</v>
+        <v>988.9448337599146</v>
       </c>
       <c r="I2">
-        <v>1285.470074221334</v>
+        <v>1285.470074069749</v>
       </c>
       <c r="J2">
-        <v>1433.106729155515</v>
+        <v>1433.106807154252</v>
       </c>
       <c r="K2">
-        <v>0.5526607383916854</v>
+        <v>0.552660665644079</v>
       </c>
       <c r="L2">
-        <v>2.918337425880185</v>
+        <v>2.918337680969268</v>
       </c>
       <c r="M2">
-        <v>0.583487251346276</v>
+        <v>0.5834875377734332</v>
       </c>
       <c r="N2">
-        <v>1.105321476783371</v>
+        <v>1.105321331288158</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
@@ -696,7 +696,7 @@
         <v>1388.770251735381</v>
       </c>
       <c r="Q2">
-        <v>0.00101</v>
+        <v>0.0009985359061543907</v>
       </c>
       <c r="R2">
         <v>1865.050087900247</v>
@@ -709,6 +709,9 @@
       </c>
       <c r="U2">
         <v>0.4800414907782372</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
         <v>2.981931218669617</v>
@@ -758,40 +761,40 @@
         <v>41</v>
       </c>
       <c r="C3">
-        <v>103.3338108167045</v>
+        <v>103.3338104977101</v>
       </c>
       <c r="D3">
-        <v>0.00302</v>
+        <v>0.003339245779126</v>
       </c>
       <c r="E3">
-        <v>0.002166887168266959</v>
+        <v>0.002441025094158034</v>
       </c>
       <c r="F3">
-        <v>1285.409241156897</v>
+        <v>1285.409241475892</v>
       </c>
       <c r="G3">
-        <v>0.00177</v>
+        <v>0.002107414120404731</v>
       </c>
       <c r="H3">
-        <v>815.5836622657513</v>
+        <v>815.58347963966</v>
       </c>
       <c r="I3">
-        <v>1285.409291159397</v>
+        <v>1285.409291478392</v>
       </c>
       <c r="J3">
-        <v>1225.330166596846</v>
+        <v>1225.330007618777</v>
       </c>
       <c r="K3">
-        <v>0.556970575662959</v>
+        <v>0.5569708025234513</v>
       </c>
       <c r="L3">
-        <v>2.339882688767294</v>
+        <v>2.339882415644469</v>
       </c>
       <c r="M3">
-        <v>0.6539945627595156</v>
+        <v>0.6539937961029044</v>
       </c>
       <c r="N3">
-        <v>1.113941151325918</v>
+        <v>1.113941605046903</v>
       </c>
       <c r="O3" t="s">
         <v>48</v>
@@ -800,7 +803,7 @@
         <v>1388.743151978602</v>
       </c>
       <c r="Q3">
-        <v>0.00125</v>
+        <v>0.001231831658721269</v>
       </c>
       <c r="R3">
         <v>1535.09123885693</v>
@@ -813,6 +816,9 @@
       </c>
       <c r="U3">
         <v>0.4920361949202328</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
         <v>2.704154294701641</v>
@@ -865,16 +871,16 @@
         <v>103.3069278981677</v>
       </c>
       <c r="D4">
-        <v>0.00454</v>
+        <v>0.004350429593681681</v>
       </c>
       <c r="E4">
-        <v>0.003502284968417048</v>
+        <v>0.003332763968836868</v>
       </c>
       <c r="F4">
         <v>1285.401620260415</v>
       </c>
       <c r="G4">
-        <v>0.00326</v>
+        <v>0.003081911230931819</v>
       </c>
       <c r="H4">
         <v>894.5760598357432</v>
@@ -904,7 +910,7 @@
         <v>1388.708648163583</v>
       </c>
       <c r="Q4">
-        <v>0.00128</v>
+        <v>0.001268518362749862</v>
       </c>
       <c r="R4">
         <v>1646.280180725079</v>
@@ -917,6 +923,9 @@
       </c>
       <c r="U4">
         <v>0.5043365654601331</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
         <v>2.570167096328094</v>
@@ -966,31 +975,40 @@
         <v>43</v>
       </c>
       <c r="C5">
-        <v>103.3010395221575</v>
+        <v>103.3010339772266</v>
+      </c>
+      <c r="D5">
+        <v>0.002899358026653716</v>
+      </c>
+      <c r="E5">
+        <v>0.002119282776369108</v>
       </c>
       <c r="F5">
-        <v>1285.380950644217</v>
+        <v>1285.380956189148</v>
+      </c>
+      <c r="G5">
+        <v>0.001829297903040009</v>
       </c>
       <c r="H5">
-        <v>1350.098658951685</v>
+        <v>1350.101643341807</v>
       </c>
       <c r="I5">
-        <v>1285.381000646717</v>
+        <v>1285.381006191648</v>
       </c>
       <c r="J5">
-        <v>2155.05514656322</v>
+        <v>2155.06232825577</v>
       </c>
       <c r="K5">
-        <v>0.5861968908412568</v>
+        <v>0.586194237919843</v>
       </c>
       <c r="L5">
-        <v>2.606137731588801</v>
+        <v>2.606146132236945</v>
       </c>
       <c r="M5">
-        <v>0.6770671704029785</v>
+        <v>0.6770808892749949</v>
       </c>
       <c r="N5">
-        <v>1.172393781682514</v>
+        <v>1.172388475839686</v>
       </c>
       <c r="O5" t="s">
         <v>48</v>
@@ -999,7 +1017,7 @@
         <v>1388.682090171375</v>
       </c>
       <c r="Q5">
-        <v>0.00108</v>
+        <v>0.001070060123613707</v>
       </c>
       <c r="R5">
         <v>2473.763433395881</v>
@@ -1013,6 +1031,9 @@
       <c r="U5">
         <v>0.5132277110661194</v>
       </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
       <c r="W5">
         <v>3.342951449103059</v>
       </c>
@@ -1026,13 +1047,13 @@
         <v>48</v>
       </c>
       <c r="AA5">
-        <v>1265.141741547915</v>
+        <v>1265.141738155238</v>
       </c>
       <c r="AB5">
-        <v>225.1357170601105</v>
+        <v>225.1444621488707</v>
       </c>
       <c r="AC5">
-        <v>0.753521738703524</v>
+        <v>0.7535648176856447</v>
       </c>
       <c r="AD5">
         <v>1410.023726704886</v>
@@ -1064,16 +1085,16 @@
         <v>103.25247720026</v>
       </c>
       <c r="D6">
-        <v>0.002237</v>
+        <v>0.002717581954345735</v>
       </c>
       <c r="E6">
-        <v>0.001671277654969395</v>
+        <v>0.002120968633252415</v>
       </c>
       <c r="F6">
         <v>1285.586972031724</v>
       </c>
       <c r="G6">
-        <v>0.0015</v>
+        <v>0.001993567356675061</v>
       </c>
       <c r="H6">
         <v>858.6196462984607</v>
@@ -1103,7 +1124,7 @@
         <v>1388.839549236985</v>
       </c>
       <c r="Q6">
-        <v>0.000737</v>
+        <v>0.0007240145976706735</v>
       </c>
       <c r="R6">
         <v>1547.88806296731</v>
@@ -1116,6 +1137,9 @@
       </c>
       <c r="U6">
         <v>0.46058840286098</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6">
         <v>2.048995397492688</v>
@@ -1165,31 +1189,40 @@
         <v>45</v>
       </c>
       <c r="C7">
-        <v>103.3060348593001</v>
+        <v>103.3060250519686</v>
+      </c>
+      <c r="D7">
+        <v>0.0040037347721505</v>
+      </c>
+      <c r="E7">
+        <v>0.003100328033770072</v>
       </c>
       <c r="F7">
-        <v>1285.373767647719</v>
+        <v>1285.37382745755</v>
+      </c>
+      <c r="G7">
+        <v>0.002895480236843717</v>
       </c>
       <c r="H7">
-        <v>997.8808322152316</v>
+        <v>999.1651985774955</v>
       </c>
       <c r="I7">
-        <v>1285.373817650219</v>
+        <v>1285.37382745755</v>
       </c>
       <c r="J7">
-        <v>1565.900510199585</v>
+        <v>1571.528012032771</v>
       </c>
       <c r="K7">
-        <v>0.5908745790041018</v>
+        <v>0.5895992431694473</v>
       </c>
       <c r="L7">
-        <v>3.178118101655344</v>
+        <v>4.098160685460347</v>
       </c>
       <c r="M7">
-        <v>0.6155469047754594</v>
+        <v>0.6258550187037439</v>
       </c>
       <c r="N7">
-        <v>1.181749158008204</v>
+        <v>1.179198486338895</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
@@ -1198,7 +1231,7 @@
         <v>1388.679902512019</v>
       </c>
       <c r="Q7">
-        <v>0.00128</v>
+        <v>0.001108254535306783</v>
       </c>
       <c r="R7">
         <v>1878.068314673153</v>
@@ -1212,6 +1245,9 @@
       <c r="U7">
         <v>0.5128371503402582</v>
       </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
       <c r="W7">
         <v>2.809103562500914</v>
       </c>
@@ -1223,15 +1259,6 @@
       </c>
       <c r="Z7" t="s">
         <v>48</v>
-      </c>
-      <c r="AA7">
-        <v>1265.109716454702</v>
-      </c>
-      <c r="AB7">
-        <v>140.0725966249752</v>
-      </c>
-      <c r="AC7">
-        <v>0.8505464434302338</v>
       </c>
       <c r="AD7">
         <v>1410.009248213728</v>
@@ -1262,14 +1289,20 @@
       <c r="C8">
         <v>103.3032768640026</v>
       </c>
+      <c r="D8">
+        <v>0.003400856191057229</v>
+      </c>
+      <c r="E8">
+        <v>0.002592957819105195</v>
+      </c>
       <c r="F8">
         <v>1285.362566452665</v>
       </c>
       <c r="G8">
-        <v>0.00265</v>
+        <v>0.002386182729319969</v>
       </c>
       <c r="H8">
-        <v>741.9066878607193</v>
+        <v>741.9066878607191</v>
       </c>
       <c r="I8">
         <v>1285.362616455165</v>
@@ -1278,10 +1311,10 @@
         <v>1177.881031413747</v>
       </c>
       <c r="K8">
-        <v>0.593382651329598</v>
+        <v>0.5933826513295981</v>
       </c>
       <c r="L8">
-        <v>2.54862684359876</v>
+        <v>2.548626843598762</v>
       </c>
       <c r="M8">
         <v>0.63388304386915</v>
@@ -1295,6 +1328,9 @@
       <c r="P8">
         <v>1388.665943321668</v>
       </c>
+      <c r="Q8">
+        <v>0.001014673461737261</v>
+      </c>
       <c r="R8">
         <v>1383.795315118154</v>
       </c>
@@ -1306,6 +1342,9 @@
       </c>
       <c r="U8">
         <v>0.5145584299508608</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
       <c r="W8">
         <v>2.618030256133117</v>
@@ -1355,34 +1394,40 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>103.3077438140626</v>
+        <v>103.3077444099038</v>
+      </c>
+      <c r="D9">
+        <v>0.003283041856616572</v>
+      </c>
+      <c r="E9">
+        <v>0.002432674674102685</v>
       </c>
       <c r="F9">
-        <v>1285.341648895762</v>
+        <v>1285.341648299921</v>
       </c>
       <c r="G9">
-        <v>0.00213</v>
+        <v>0.002155682456367518</v>
       </c>
       <c r="H9">
-        <v>1184.562521224834</v>
+        <v>1184.564148378073</v>
       </c>
       <c r="I9">
-        <v>1285.341698898262</v>
+        <v>1285.341698302421</v>
       </c>
       <c r="J9">
-        <v>1945.245170559057</v>
+        <v>1945.250843440412</v>
       </c>
       <c r="K9">
-        <v>0.6050020040692057</v>
+        <v>0.6050003855460366</v>
       </c>
       <c r="L9">
-        <v>2.982807765110913</v>
+        <v>2.982833638240457</v>
       </c>
       <c r="M9">
-        <v>0.6693574783750242</v>
+        <v>0.6693677755212957</v>
       </c>
       <c r="N9">
-        <v>1.210004008138411</v>
+        <v>1.210000771092073</v>
       </c>
       <c r="O9" t="s">
         <v>48</v>
@@ -1390,6 +1435,9 @@
       <c r="P9">
         <v>1388.649492714825</v>
       </c>
+      <c r="Q9">
+        <v>0.001127359400249055</v>
+      </c>
       <c r="R9">
         <v>2189.849117685088</v>
       </c>
@@ -1402,6 +1450,9 @@
       <c r="U9">
         <v>0.5114140990811215</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
       <c r="W9">
         <v>3.557065201373308</v>
       </c>
@@ -1415,13 +1466,13 @@
         <v>48</v>
       </c>
       <c r="AA9">
-        <v>1265.10104699577</v>
+        <v>1265.101042386816</v>
       </c>
       <c r="AB9">
-        <v>219.4993388964008</v>
+        <v>219.5095786259168</v>
       </c>
       <c r="AC9">
-        <v>0.8615792401831359</v>
+        <v>0.8616414706285049</v>
       </c>
       <c r="AD9">
         <v>1410.009817470318</v>
